--- a/cfg/excel/game_time_cfg.xlsx
+++ b/cfg/excel/game_time_cfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DrunkFrog\cfg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Emanon\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F85ECFD-3EAC-4736-9713-293587DF6FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B6B6B7-0C8C-49FB-ADE5-268D4E045FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="267">
   <si>
     <t>id</t>
   </si>
@@ -178,14 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TheDivision</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,44 +293,6 @@
   </si>
   <si>
     <t>评级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>💜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：喜欢的游戏
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🏆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：特殊成就，点击查看</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1075,7 +1029,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,17 +1084,6 @@
       <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1206,7 +1149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,9 +1176,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1547,14 +1487,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
@@ -1570,7 +1510,7 @@
     <col min="12" max="12" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="14.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1583,7 +1523,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1594,7 +1534,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1602,18 +1542,18 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1621,31 +1561,27 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1653,167 +1589,183 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="14.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>278</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="57">
       <c r="A11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>400</v>
+        <v>1757</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1825,125 +1777,125 @@
         <v>1</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>51</v>
+      <c r="I11" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="57" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="57">
       <c r="A12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="3">
-        <v>1757</v>
+        <v>8000</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.25">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="57" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="3">
-        <v>8000</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D14" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14">
         <v>3</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K14" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1952,29 +1904,27 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25">
       <c r="A16" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1983,27 +1933,31 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.25">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -2015,28 +1969,26 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17">
-        <v>6</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3">
-        <v>500</v>
+        <v>124</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -2045,29 +1997,27 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.25">
       <c r="A19" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -2083,78 +2033,80 @@
       <c r="J19">
         <v>3</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K19" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25">
       <c r="A20" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25">
       <c r="A21" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.25">
       <c r="A22" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -2166,26 +2118,26 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.25">
       <c r="A23" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -2197,26 +2149,26 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23">
-        <v>5</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.25">
       <c r="A24" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -2228,22 +2180,22 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24">
         <v>3</v>
       </c>
-      <c r="K24" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K24" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.25">
       <c r="A25" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
@@ -2259,26 +2211,26 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.25">
       <c r="A26" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
-        <v>5</v>
+        <v>445</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -2287,29 +2239,31 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26">
-        <v>4</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.25">
       <c r="A27" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <v>445</v>
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="8">
+        <v>100</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -2318,31 +2272,31 @@
         <v>0</v>
       </c>
       <c r="G27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27">
-        <v>6</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.25">
       <c r="A28" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -2358,24 +2312,24 @@
       </c>
       <c r="I28" s="2"/>
       <c r="J28">
-        <v>4</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.25">
       <c r="A29" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -2384,31 +2338,31 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.25">
       <c r="A30" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="8">
-        <v>200</v>
+      <c r="D30" s="3">
+        <v>50</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -2417,31 +2371,27 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30">
-        <v>6</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.25">
       <c r="A31" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
@@ -2452,25 +2402,27 @@
       <c r="G31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31">
-        <v>5</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.25">
       <c r="A32" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -2482,26 +2434,26 @@
         <v>0</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32">
         <v>3</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K32" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.25">
       <c r="A33" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
@@ -2513,26 +2465,26 @@
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.25">
       <c r="A34" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
@@ -2548,22 +2500,22 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.25">
       <c r="A35" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
@@ -2575,26 +2527,26 @@
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35">
-        <v>5</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.25">
       <c r="A36" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
@@ -2606,26 +2558,26 @@
         <v>0</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36">
-        <v>4</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.25">
       <c r="A37" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2">
         <v>2</v>
@@ -2637,26 +2589,26 @@
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37">
         <v>3</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K37" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.25">
       <c r="A38" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
@@ -2665,29 +2617,29 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14.25">
       <c r="A39" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
@@ -2696,29 +2648,29 @@
         <v>0</v>
       </c>
       <c r="G39" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39">
-        <v>6</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.25">
       <c r="A40" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
@@ -2729,27 +2681,25 @@
       <c r="G40" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40">
-        <v>3</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14.25">
       <c r="A41" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
@@ -2763,22 +2713,24 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.25">
       <c r="A42" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D42" s="3">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
@@ -2787,29 +2739,28 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="b">
-        <v>0</v>
+        <f>$F$44</f>
+        <v>1</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14.25">
       <c r="A43" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="3">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2">
         <v>2</v>
@@ -2818,34 +2769,35 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="b">
-        <f>$F$45</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43">
-        <v>6</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="14.25">
       <c r="A44" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D44" s="3">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
       </c>
       <c r="F44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2" t="b">
         <v>0</v>
@@ -2855,47 +2807,49 @@
       <c r="J44">
         <v>4</v>
       </c>
-      <c r="K44" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K44" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.25">
       <c r="A45" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E45" s="2">
         <v>2</v>
       </c>
       <c r="F45" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45">
-        <v>4</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14.25">
       <c r="A46" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>34</v>
@@ -2913,28 +2867,28 @@
         <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46">
         <v>2</v>
       </c>
-      <c r="K46" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K46" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14.25">
       <c r="A47" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E47" s="2">
         <v>2</v>
@@ -2946,28 +2900,28 @@
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47">
-        <v>2</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="14.25">
       <c r="A48" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
@@ -2979,28 +2933,28 @@
         <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48">
         <v>3</v>
       </c>
-      <c r="K48" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K48" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14.25">
       <c r="A49" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E49" s="2">
         <v>2</v>
@@ -3011,29 +2965,25 @@
       <c r="G49" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49">
         <v>3</v>
       </c>
-      <c r="K49" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K49" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.25">
       <c r="A50" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2">
         <v>2</v>
@@ -3047,22 +2997,22 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50">
-        <v>3</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.25">
       <c r="A51" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E51" s="2">
         <v>2</v>
@@ -3071,54 +3021,56 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="I51" s="2"/>
       <c r="J51">
         <v>5</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K51" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.25">
       <c r="A52" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2">
         <v>2</v>
       </c>
       <c r="F52" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52">
-        <v>5</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.25">
       <c r="A53" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3">
@@ -3128,32 +3080,30 @@
         <v>2</v>
       </c>
       <c r="F53" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53">
         <v>2</v>
       </c>
-      <c r="K53" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K53" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.25">
       <c r="A54" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E54" s="2">
         <v>2</v>
@@ -3162,85 +3112,87 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I54" s="2"/>
       <c r="J54">
-        <v>2</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.25">
       <c r="A55" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3">
-        <v>30</v>
-      </c>
-      <c r="E55" s="2">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55">
         <v>5</v>
       </c>
-      <c r="K55" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K55" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.25">
       <c r="A56" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3">
         <v>10</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2">
+        <v>2</v>
+      </c>
       <c r="F56" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56">
-        <v>5</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.25">
       <c r="A57" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2">
         <v>2</v>
@@ -3252,29 +3204,29 @@
         <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57">
-        <v>3</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.25">
       <c r="A58" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E58" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="2" t="b">
         <v>0</v>
@@ -3282,27 +3234,25 @@
       <c r="G58" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58">
-        <v>2</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14.25">
       <c r="A59" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="2">
         <v>3</v>
@@ -3316,22 +3266,22 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59">
-        <v>3</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.25">
       <c r="A60" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" s="2">
         <v>3</v>
@@ -3345,22 +3295,24 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60">
-        <v>4</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.25">
       <c r="A61" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D61" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E61" s="2">
         <v>3</v>
@@ -3369,29 +3321,27 @@
         <v>0</v>
       </c>
       <c r="G61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61">
         <v>3</v>
       </c>
-      <c r="K61" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K61" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.25">
       <c r="A62" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C62" s="3"/>
       <c r="D62" s="3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E62" s="2">
         <v>3</v>
@@ -3400,27 +3350,27 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62">
         <v>3</v>
       </c>
-      <c r="K62" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K62" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14.25">
       <c r="A63" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2">
         <v>3</v>
@@ -3434,86 +3384,90 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63">
-        <v>3</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.25">
       <c r="A64" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D64" s="3">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="E64" s="2">
         <v>3</v>
       </c>
       <c r="F64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="I64" s="2"/>
       <c r="J64">
-        <v>4</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.25">
       <c r="A65" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="3">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E65" s="2">
         <v>3</v>
       </c>
       <c r="F65" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65">
-        <v>5</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.25">
       <c r="A66" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D66" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E66" s="2">
         <v>3</v>
@@ -3529,24 +3483,22 @@
       </c>
       <c r="I66" s="2"/>
       <c r="J66">
-        <v>4</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14.25">
       <c r="A67" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C67" s="3"/>
       <c r="D67" s="3">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E67" s="2">
         <v>3</v>
@@ -3558,88 +3510,86 @@
         <v>0</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67">
-        <v>2</v>
-      </c>
-      <c r="K67" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.25">
       <c r="A68" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E68" s="2">
         <v>3</v>
       </c>
       <c r="F68" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68">
-        <v>5</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="14.25">
       <c r="A69" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E69" s="2">
         <v>3</v>
       </c>
       <c r="F69" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69">
-        <v>4</v>
-      </c>
-      <c r="K69" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.25">
       <c r="A70" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E70" s="2">
         <v>3</v>
@@ -3653,25 +3603,25 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70">
-        <v>2</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="14.25">
       <c r="A71" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E71" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" s="2" t="b">
         <v>0</v>
@@ -3682,82 +3632,84 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71">
-        <v>3</v>
-      </c>
-      <c r="K71" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="14.25">
       <c r="A72" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2">
         <v>4</v>
       </c>
       <c r="F72" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72">
-        <v>4</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.25">
       <c r="A73" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C73" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D73" s="3">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E73" s="2">
         <v>4</v>
       </c>
       <c r="F73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I73" s="2"/>
       <c r="J73">
-        <v>6</v>
-      </c>
-      <c r="K73" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.25">
       <c r="A74" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C74" s="3"/>
       <c r="D74" s="3">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E74" s="2">
         <v>4</v>
@@ -3766,29 +3718,29 @@
         <v>0</v>
       </c>
       <c r="G74" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74">
-        <v>3</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.25">
       <c r="A75" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E75" s="2">
         <v>4</v>
@@ -3797,29 +3749,27 @@
         <v>0</v>
       </c>
       <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75">
-        <v>4</v>
-      </c>
-      <c r="K75" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.25">
       <c r="A76" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E76" s="2">
         <v>4</v>
@@ -3828,27 +3778,27 @@
         <v>0</v>
       </c>
       <c r="G76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76">
-        <v>2</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.25">
       <c r="A77" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E77" s="2">
         <v>4</v>
@@ -3857,27 +3807,27 @@
         <v>0</v>
       </c>
       <c r="G77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77">
-        <v>5</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.25">
       <c r="A78" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E78" s="2">
         <v>4</v>
@@ -3893,20 +3843,20 @@
       <c r="J78">
         <v>3</v>
       </c>
-      <c r="K78" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K78" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14.25">
       <c r="A79" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E79" s="2">
         <v>4</v>
@@ -3922,20 +3872,20 @@
       <c r="J79">
         <v>3</v>
       </c>
-      <c r="K79" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K79" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="14.25">
       <c r="A80" s="2">
-        <v>71</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E80" s="2">
         <v>4</v>
@@ -3951,20 +3901,20 @@
       <c r="J80">
         <v>3</v>
       </c>
-      <c r="K80" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K80" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="14.25">
       <c r="A81" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E81" s="2">
         <v>4</v>
@@ -3980,20 +3930,20 @@
       <c r="J81">
         <v>3</v>
       </c>
-      <c r="K81" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K81" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="14.25">
       <c r="A82" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E82" s="2">
         <v>4</v>
@@ -4007,25 +3957,25 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82">
-        <v>3</v>
-      </c>
-      <c r="K82" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="14.25">
       <c r="A83" s="2">
-        <v>74</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>136</v>
+        <v>75</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E83" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F83" s="2" t="b">
         <v>0</v>
@@ -4036,22 +3986,24 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83">
-        <v>4</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="14.25">
       <c r="A84" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D84" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2">
         <v>5</v>
@@ -4065,18 +4017,18 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84">
-        <v>2</v>
-      </c>
-      <c r="K84" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="14.25">
       <c r="A85" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>33</v>
@@ -4098,22 +4050,22 @@
       <c r="J85">
         <v>6</v>
       </c>
-      <c r="K85" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K85" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="14.25">
       <c r="A86" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E86" s="2">
         <v>5</v>
@@ -4122,29 +4074,29 @@
         <v>0</v>
       </c>
       <c r="G86" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86">
-        <v>6</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="14.25">
       <c r="A87" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" s="3">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E87" s="2">
         <v>5</v>
@@ -4153,29 +4105,29 @@
         <v>0</v>
       </c>
       <c r="G87" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87">
-        <v>5</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="14.25">
       <c r="A88" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2">
         <v>5</v>
@@ -4189,24 +4141,22 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88">
-        <v>4</v>
-      </c>
-      <c r="K88" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="14.25">
       <c r="A89" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C89" s="3"/>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E89" s="2">
         <v>5</v>
@@ -4220,25 +4170,25 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89">
-        <v>5</v>
-      </c>
-      <c r="K89" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="14.25">
       <c r="A90" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E90" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" s="2" t="b">
         <v>0</v>
@@ -4249,82 +4199,82 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90">
-        <v>2</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="14.25">
       <c r="A91" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E91" s="2">
         <v>4</v>
       </c>
       <c r="F91" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91">
         <v>4</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="K91" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="14.25">
+      <c r="A92" s="2">
+        <v>84</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A92" s="2">
-        <v>83</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="3"/>
+      <c r="C92" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D92" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E92" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F92" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92">
-        <v>4</v>
-      </c>
-      <c r="K92" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="14.25">
       <c r="A93" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C93" s="3"/>
       <c r="D93" s="3">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="E93" s="2">
         <v>6</v>
@@ -4333,58 +4283,62 @@
         <v>0</v>
       </c>
       <c r="G93" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93">
         <v>3</v>
       </c>
-      <c r="K93" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K93" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="14.25">
       <c r="A94" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D94" s="3">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F94" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
+      <c r="I94" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J94">
         <v>3</v>
       </c>
-      <c r="K94" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K94" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="14.25">
       <c r="A95" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D95" s="3">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E95" s="2">
         <v>7</v>
@@ -4397,27 +4351,25 @@
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J95">
-        <v>3</v>
-      </c>
-      <c r="K95" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="14.25">
       <c r="A96" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C96" s="3"/>
       <c r="D96" s="3">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E96" s="2">
         <v>7</v>
@@ -4426,29 +4378,29 @@
         <v>0</v>
       </c>
       <c r="G96" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="2"/>
-      <c r="I96" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="I96" s="2"/>
       <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="14.25">
       <c r="A97" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C97" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D97" s="3">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E97" s="2">
         <v>7</v>
@@ -4457,29 +4409,29 @@
         <v>0</v>
       </c>
       <c r="G97" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97">
-        <v>3</v>
-      </c>
-      <c r="K97" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="14.25">
       <c r="A98" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D98" s="3">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2">
         <v>7</v>
@@ -4491,26 +4443,26 @@
         <v>0</v>
       </c>
       <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
+      <c r="I98" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="J98">
-        <v>4</v>
-      </c>
-      <c r="K98" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="14.25">
       <c r="A99" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C99" s="3"/>
       <c r="D99" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E99" s="2">
         <v>7</v>
@@ -4522,26 +4474,24 @@
         <v>0</v>
       </c>
       <c r="H99" s="2"/>
-      <c r="I99" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="I99" s="2"/>
       <c r="J99">
         <v>2</v>
       </c>
-      <c r="K99" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K99" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="14.25">
       <c r="A100" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E100" s="2">
         <v>7</v>
@@ -4555,22 +4505,22 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100">
-        <v>2</v>
-      </c>
-      <c r="K100" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="14.25">
       <c r="A101" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E101" s="2">
         <v>7</v>
@@ -4586,20 +4536,22 @@
       <c r="J101">
         <v>1</v>
       </c>
-      <c r="K101" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K101" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="14.25">
       <c r="A102" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C102" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D102" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E102" s="2">
         <v>7</v>
@@ -4613,24 +4565,22 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="14.25">
       <c r="A103" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C103" s="3"/>
       <c r="D103" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2">
         <v>7</v>
@@ -4644,22 +4594,22 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103">
-        <v>2</v>
-      </c>
-      <c r="K103" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="14.25">
       <c r="A104" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E104" s="2">
         <v>7</v>
@@ -4673,25 +4623,27 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104">
-        <v>1</v>
-      </c>
-      <c r="K104" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="28.5">
       <c r="A105" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C105" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D105" s="3">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E105" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F105" s="2" t="b">
         <v>0</v>
@@ -4700,29 +4652,31 @@
         <v>0</v>
       </c>
       <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
+      <c r="I105" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="J105">
-        <v>2</v>
-      </c>
-      <c r="K105" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="14.25">
       <c r="A106" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D106" s="3">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="E106" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F106" s="2" t="b">
         <v>0</v>
@@ -4731,28 +4685,26 @@
         <v>0</v>
       </c>
       <c r="H106" s="2"/>
-      <c r="I106" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="I106" s="2"/>
       <c r="J106">
-        <v>5</v>
-      </c>
-      <c r="K106" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="14.25">
       <c r="A107" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D107" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E107" s="2">
         <v>8</v>
@@ -4766,24 +4718,24 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107">
-        <v>2</v>
-      </c>
-      <c r="K107" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="14.25">
       <c r="A108" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D108" s="3">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E108" s="2">
         <v>8</v>
@@ -4799,22 +4751,22 @@
       <c r="J108">
         <v>1</v>
       </c>
-      <c r="K108" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K108" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="14.25">
       <c r="A109" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D109" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E109" s="2">
         <v>8</v>
@@ -4830,22 +4782,20 @@
       <c r="J109">
         <v>1</v>
       </c>
-      <c r="K109" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K109" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="14.25">
       <c r="A110" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C110" s="3"/>
       <c r="D110" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E110" s="2">
         <v>8</v>
@@ -4861,54 +4811,25 @@
       <c r="J110">
         <v>1</v>
       </c>
-      <c r="K110" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A111" s="2">
-        <v>102</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="K110" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="14.25">
+      <c r="A111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="3">
-        <v>5</v>
-      </c>
-      <c r="E111" s="2">
-        <v>8</v>
-      </c>
-      <c r="F111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G111" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
-      <c r="J111">
-        <v>1</v>
-      </c>
-      <c r="K111" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="J1:J111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4921,7 +4842,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4935,7 +4856,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
